--- a/data/data.xlsx
+++ b/data/data.xlsx
@@ -5,54 +5,87 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\JiaruiYan\MasterDegreeProjects\CIS565\Proj3\Project3-CUDA-Path-Tracer\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\JiaruiYan\MasterDegreeProjects\CIS565\Proj4\Project3-CUDA-Path-Tracer\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9F9AF8E-155E-4B20-993B-3A3DD755B24B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0418AA9-E99E-4A12-99AD-4091D95096CD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2715" yWindow="2625" windowWidth="22635" windowHeight="11055" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
-    <t>3000 iterations (milliseconds)</t>
+    <t xml:space="preserve">Path trace </t>
   </si>
   <si>
-    <t>No material sort</t>
+    <t>denoiser with dim 5</t>
   </si>
   <si>
-    <t>Material sort</t>
+    <t>denoiser with dim 9</t>
   </si>
   <si>
-    <t>4 depth</t>
+    <t>denoiser with dim 17</t>
   </si>
   <si>
-    <t xml:space="preserve">8 depth </t>
+    <t>denoiser with dim 33</t>
   </si>
   <si>
-    <t xml:space="preserve">16 depth </t>
+    <t>denoiser with dim 65</t>
   </si>
   <si>
-    <t>32 depth</t>
+    <t>denoiser with dim 129</t>
+  </si>
+  <si>
+    <t>Resolution Runtime:</t>
+  </si>
+  <si>
+    <t>800x800</t>
+  </si>
+  <si>
+    <t>600x600</t>
+  </si>
+  <si>
+    <t>400x400</t>
+  </si>
+  <si>
+    <t>1000x1000</t>
+  </si>
+  <si>
+    <t>1200x1200</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -78,14 +111,17 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -135,25 +171,13 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>Cache first bounce influence for different max ray depths</a:t>
-            </a:r>
-          </a:p>
-          <a:p>
-            <a:pPr>
-              <a:defRPr/>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>(Lower</a:t>
+              <a:t>Time comparsion between</a:t>
             </a:r>
             <a:r>
               <a:rPr lang="en-US" baseline="0"/>
-              <a:t> is better</a:t>
+              <a:t> different filter size of A-Trous denoiser and a iteration of path trace</a:t>
             </a:r>
-            <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>)</a:t>
-            </a:r>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -196,9 +220,6 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
-          <c:tx>
-            <c:v>without re-use</c:v>
-          </c:tx>
           <c:spPr>
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -269,169 +290,66 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>(Sheet1!$A$5,Sheet1!$A$8,Sheet1!$A$11,Sheet1!$A$14)</c:f>
+              <c:f>Sheet1!$A$1:$G$1</c:f>
               <c:strCache>
-                <c:ptCount val="4"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>4 depth</c:v>
+                  <c:v>Path trace </c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>8 depth </c:v>
+                  <c:v>denoiser with dim 5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>16 depth </c:v>
+                  <c:v>denoiser with dim 9</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>32 depth</c:v>
+                  <c:v>denoiser with dim 17</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>denoiser with dim 33</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>denoiser with dim 65</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>denoiser with dim 129</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>(Sheet1!$B$5,Sheet1!$B$8,Sheet1!$B$11,Sheet1!$B$14)</c:f>
+              <c:f>Sheet1!$A$2:$G$2</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>98445</c:v>
+                  <c:v>31.5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>135935</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>170843</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>193332</c:v>
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8.5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>9.3000000000000007</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>9.8000000000000007</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-D4CB-4F89-AE3C-AEFAC223BC9A}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:v>with re-use</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent2"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:dLbls>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                <a:spAutoFit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="75000"/>
-                        <a:lumOff val="25000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:endParaRPr lang="en-US"/>
-              </a:p>
-            </c:txPr>
-            <c:dLblPos val="outEnd"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="1"/>
-                <c15:leaderLines>
-                  <c:spPr>
-                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="35000"/>
-                          <a:lumOff val="65000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:round/>
-                    </a:ln>
-                    <a:effectLst/>
-                  </c:spPr>
-                </c15:leaderLines>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>(Sheet1!$A$5,Sheet1!$A$8,Sheet1!$A$11,Sheet1!$A$14)</c:f>
-              <c:strCache>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>4 depth</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>8 depth </c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>16 depth </c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>32 depth</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>(Sheet1!$B$6,Sheet1!$B$9,Sheet1!$B$12,Sheet1!$B$15)</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>68474</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>105575</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>140281</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>162169</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-D4CB-4F89-AE3C-AEFAC223BC9A}"/>
+              <c16:uniqueId val="{00000000-13A8-4882-AB61-4A1644400939}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -446,11 +364,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="948116464"/>
-        <c:axId val="950206928"/>
+        <c:axId val="747971808"/>
+        <c:axId val="674225328"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="948116464"/>
+        <c:axId val="747971808"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -477,7 +395,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US"/>
-                  <a:t>Different max depth</a:t>
+                  <a:t>Different test cases</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -548,7 +466,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="950206928"/>
+        <c:crossAx val="674225328"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -556,7 +474,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="950206928"/>
+        <c:axId val="674225328"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -597,7 +515,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US"/>
-                  <a:t>Time (miliseconds)</a:t>
+                  <a:t>Time (ms)</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -662,7 +580,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="948116464"/>
+        <c:crossAx val="747971808"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -674,8 +592,103 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>1 iteration</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> of </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>path trace time</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> over denoise time for different resolution</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -689,7 +702,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -704,7 +717,382 @@
           <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
-    </c:legend>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$A$26:$E$26</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>400x400</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>600x600</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>800x800</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1000x1000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1200x1200</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$A$29:$E$29</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.3035714285714286</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.28571428571428575</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.22857142857142856</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.17062634989200864</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.16185897435897437</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-7E88-43D3-97A1-D63F642FEACD}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="675813632"/>
+        <c:axId val="531864720"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="675813632"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Different</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> resolutions</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="531864720"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="531864720"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>percentages</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0%" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="675813632"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:extLst>
@@ -789,6 +1177,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
@@ -1292,27 +1720,530 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>457199</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>100012</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1028700</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>180974</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>396239</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>138112</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>161926</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>57149</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Chart 2">
+        <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F39AE225-B1F8-4D1F-9DA6-619F1C74C00C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{604FA925-0D5D-4B8D-87D3-B1509DABC8D4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1325,6 +2256,42 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1085850</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>100012</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B1382310-684C-49CB-B4FD-68148C11F92A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -1596,88 +2563,197 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B15"/>
+  <dimension ref="A1:I29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R17" sqref="R17"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="F58" sqref="F58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="33.7109375" customWidth="1"/>
+    <col min="1" max="1" width="38.7109375" customWidth="1"/>
+    <col min="2" max="2" width="30.140625" customWidth="1"/>
+    <col min="3" max="3" width="48" customWidth="1"/>
+    <col min="4" max="4" width="32.5703125" customWidth="1"/>
+    <col min="5" max="5" width="37.42578125" customWidth="1"/>
+    <col min="6" max="6" width="28.5703125" customWidth="1"/>
+    <col min="7" max="7" width="31.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>2</v>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <f>31.5</f>
+        <v>31.5</v>
       </c>
       <c r="B2">
-        <v>104709</v>
+        <v>5</v>
+      </c>
+      <c r="C2">
+        <v>6</v>
+      </c>
+      <c r="D2">
+        <v>7</v>
+      </c>
+      <c r="E2">
+        <v>8.5</v>
+      </c>
+      <c r="F2">
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="G2">
+        <v>9.8000000000000007</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3">
-        <v>50011</v>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I15">
+        <v>59</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5">
-        <v>98445</v>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I16">
+        <v>126</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B6">
-        <v>68474</v>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I17">
+        <v>160</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>4</v>
-      </c>
-      <c r="B8">
-        <v>135935</v>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I18">
+        <v>195</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B9">
-        <v>105575</v>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I19">
+        <v>234</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>5</v>
-      </c>
-      <c r="B11">
-        <v>170843</v>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I20">
+        <v>270</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B12">
-        <v>140281</v>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I21">
+        <v>309</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>6</v>
-      </c>
-      <c r="B14">
-        <v>193332</v>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I22">
+        <v>344</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B15">
-        <v>162169</v>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I23">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I24">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>10</v>
+      </c>
+      <c r="B26" t="s">
+        <v>9</v>
+      </c>
+      <c r="C26" t="s">
+        <v>8</v>
+      </c>
+      <c r="D26" t="s">
+        <v>11</v>
+      </c>
+      <c r="E26" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>11.2</v>
+      </c>
+      <c r="B27">
+        <v>18.2</v>
+      </c>
+      <c r="C27">
+        <f>31.5</f>
+        <v>31.5</v>
+      </c>
+      <c r="D27">
+        <v>46.3</v>
+      </c>
+      <c r="E27">
+        <v>62.4</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>3.4</v>
+      </c>
+      <c r="B28">
+        <v>5.2</v>
+      </c>
+      <c r="C28">
+        <v>7.2</v>
+      </c>
+      <c r="D28">
+        <v>7.9</v>
+      </c>
+      <c r="E28">
+        <v>10.1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A29" s="1">
+        <f t="shared" ref="A29:B29" si="0">(A28/A27)</f>
+        <v>0.3035714285714286</v>
+      </c>
+      <c r="B29" s="1">
+        <f t="shared" si="0"/>
+        <v>0.28571428571428575</v>
+      </c>
+      <c r="C29" s="1">
+        <f>(C28/C27)</f>
+        <v>0.22857142857142856</v>
+      </c>
+      <c r="D29" s="1">
+        <f t="shared" ref="D29:E29" si="1">(D28/D27)</f>
+        <v>0.17062634989200864</v>
+      </c>
+      <c r="E29" s="1">
+        <f t="shared" si="1"/>
+        <v>0.16185897435897437</v>
       </c>
     </row>
   </sheetData>
